--- a/2022/Realme/MARCH/14.03.2022/realme Bank Statement March-2022.xlsx
+++ b/2022/Realme/MARCH/14.03.2022/realme Bank Statement March-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="March-2022" sheetId="7" r:id="rId1"/>
@@ -93,6 +93,21 @@
           <t>Chandon Dada Launch
 490
 2 DSR=160</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>A4 Paper=240
+Pen=14=60</t>
         </r>
       </text>
     </comment>
@@ -2633,6 +2648,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2670,12 +2691,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4151,9 +4166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4170,67 +4185,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="274"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="274"/>
-      <c r="P1" s="274"/>
-      <c r="Q1" s="274"/>
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
     </row>
     <row r="2" spans="1:24" s="87" customFormat="1" ht="18">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="277" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="277"/>
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
     </row>
     <row r="3" spans="1:24" s="88" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="278" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="277"/>
-      <c r="F3" s="277"/>
-      <c r="G3" s="277"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="277"/>
-      <c r="J3" s="277"/>
-      <c r="K3" s="277"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="277"/>
-      <c r="N3" s="277"/>
-      <c r="O3" s="277"/>
-      <c r="P3" s="277"/>
-      <c r="Q3" s="278"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="279"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="280"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4239,10 +4254,10 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="90" customFormat="1">
-      <c r="A4" s="279" t="s">
+      <c r="A4" s="281" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="281" t="s">
+      <c r="B4" s="283" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="270" t="s">
@@ -4278,13 +4293,13 @@
       <c r="M4" s="270" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="272" t="s">
+      <c r="N4" s="274" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="285" t="s">
+      <c r="O4" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="283" t="s">
+      <c r="P4" s="285" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="89" t="s">
@@ -4297,8 +4312,8 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:24" s="90" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="280"/>
-      <c r="B5" s="282"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="284"/>
       <c r="C5" s="271"/>
       <c r="D5" s="271"/>
       <c r="E5" s="271"/>
@@ -4310,9 +4325,9 @@
       <c r="K5" s="271"/>
       <c r="L5" s="271"/>
       <c r="M5" s="271"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="286"/>
-      <c r="P5" s="284"/>
+      <c r="N5" s="275"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="286"/>
       <c r="Q5" s="94" t="s">
         <v>36</v>
       </c>
@@ -4739,7 +4754,9 @@
       <c r="C17" s="99">
         <v>400</v>
       </c>
-      <c r="D17" s="107"/>
+      <c r="D17" s="107">
+        <v>300</v>
+      </c>
       <c r="E17" s="107"/>
       <c r="F17" s="107"/>
       <c r="G17" s="107">
@@ -4760,7 +4777,7 @@
       <c r="P17" s="109"/>
       <c r="Q17" s="103">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>910</v>
       </c>
       <c r="R17" s="104"/>
       <c r="S17" s="4"/>
@@ -5254,7 +5271,7 @@
       </c>
       <c r="D37" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E37" s="125">
         <f t="shared" si="1"/>
@@ -5306,7 +5323,7 @@
       </c>
       <c r="Q37" s="127">
         <f>SUM(Q6:Q36)</f>
-        <v>9620</v>
+        <v>9920</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7308,12 +7325,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7327,6 +7338,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16500,8 +16517,8 @@
   </sheetPr>
   <dimension ref="A1:AC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
